--- a/Data/EC/NIT-9001551071.xlsx
+++ b/Data/EC/NIT-9001551071.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6253E213-A2DA-4AF3-A385-46016577451E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBE06F00-C7A2-4D3D-8D30-95358D9A69FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6ED12478-9F45-45C4-A42F-A38305C30462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{17EF2C8C-E2F8-4210-AFD8-860B3CA959AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="140">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,276 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1043973103</t>
+  </si>
+  <si>
+    <t>ZHARICK CAROLINA GOMEZ RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>73009811</t>
+  </si>
+  <si>
+    <t>GUSTAVO ALBERTO TABORDA TOVAR</t>
+  </si>
+  <si>
+    <t>45533447</t>
+  </si>
+  <si>
+    <t>LUZ MAIRA ROMERO OROZCO</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>1047393522</t>
+  </si>
+  <si>
+    <t>YURANIS ANYELIN VENECIA GONZALEZ</t>
+  </si>
+  <si>
+    <t>1043651464</t>
+  </si>
+  <si>
+    <t>CESAR ENRIQUE MORELO MEZA</t>
+  </si>
+  <si>
+    <t>33102270</t>
+  </si>
+  <si>
+    <t>LUCELIS PEREZ BALCEIRO</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>32936578</t>
+  </si>
+  <si>
+    <t>MADELEINE DEL CARMEN LEONES CARMONA</t>
+  </si>
+  <si>
+    <t>1047399049</t>
+  </si>
+  <si>
+    <t>SANDY MARTINEZ MUÑOS</t>
+  </si>
+  <si>
+    <t>1001976695</t>
+  </si>
+  <si>
+    <t>JHOSEP DAVID RAMOS DIAZ</t>
+  </si>
+  <si>
+    <t>22801406</t>
+  </si>
+  <si>
+    <t>SIXTA ELVIRA GOMEZ SANCHEZ</t>
+  </si>
+  <si>
+    <t>1102846070</t>
+  </si>
+  <si>
+    <t>JAIRO JOSE RAMIREZ VERGARA</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>1143333341</t>
+  </si>
+  <si>
+    <t>MARLY JUDITH RANGEL PAEZ</t>
+  </si>
+  <si>
+    <t>72357057</t>
+  </si>
+  <si>
+    <t>ARMANDO ANDRES RODRIGUEZ GARAY</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>9147067</t>
+  </si>
+  <si>
+    <t>YAMIL OSORIO VEGA</t>
+  </si>
+  <si>
+    <t>1143399946</t>
+  </si>
+  <si>
+    <t>YENDIS VANESA MONTES ANAYA</t>
+  </si>
+  <si>
     <t>88269879</t>
   </si>
   <si>
@@ -80,208 +350,37 @@
     <t>FELIX ALFONSO MORALES TABORDA</t>
   </si>
   <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
     <t>2001</t>
   </si>
   <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>72357057</t>
-  </si>
-  <si>
-    <t>ARMANDO ANDRES RODRIGUEZ GARAY</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
     <t>20286454</t>
   </si>
   <si>
     <t>CRISTIAN DAVID ALFARO PALACIOS</t>
   </si>
   <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>1102846070</t>
-  </si>
-  <si>
-    <t>JAIRO JOSE RAMIREZ VERGARA</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>22801406</t>
-  </si>
-  <si>
-    <t>SIXTA ELVIRA GOMEZ SANCHEZ</t>
-  </si>
-  <si>
-    <t>45533447</t>
-  </si>
-  <si>
-    <t>LUZ MAIRA ROMERO OROZCO</t>
-  </si>
-  <si>
-    <t>32936578</t>
-  </si>
-  <si>
-    <t>MADELEINE DEL CARMEN LEONES CARMONA</t>
-  </si>
-  <si>
-    <t>1047399049</t>
-  </si>
-  <si>
-    <t>SANDY MARTINEZ MUÑOS</t>
-  </si>
-  <si>
-    <t>1047393522</t>
-  </si>
-  <si>
-    <t>YURANIS ANYELIN VENECIA GONZALEZ</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
+    <t>1001899220</t>
+  </si>
+  <si>
+    <t>ANDRES FELIPE CABRERA CUADRO</t>
   </si>
   <si>
     <t>1067405527</t>
@@ -290,46 +389,40 @@
     <t>GINA MARCELA AVILA CASTRO</t>
   </si>
   <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
+    <t>1002303415</t>
+  </si>
+  <si>
+    <t>DANIS PAOLA BARRIOS HOYOS</t>
+  </si>
+  <si>
+    <t>1043646670</t>
+  </si>
+  <si>
+    <t>LUIS GABRIEL OSUNA FLOREZ</t>
+  </si>
+  <si>
+    <t>9186508</t>
+  </si>
+  <si>
+    <t>GERONIMO ANDRES SANTOYA ARROYO</t>
+  </si>
+  <si>
+    <t>1101876592</t>
+  </si>
+  <si>
+    <t>GLENDIS ROSA GUTIERREZ ALVAREZ</t>
+  </si>
+  <si>
+    <t>1043648355</t>
+  </si>
+  <si>
+    <t>YIRAMA SEPULVEDA GUARDIA</t>
+  </si>
+  <si>
+    <t>1007469995</t>
+  </si>
+  <si>
+    <t>YINETH DEL CARMEN ORTEGA MACIAS</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -743,7 +836,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{739CB9F6-FDC3-3533-70CD-8BB92F346DC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4901EA4-CE20-5222-A6B8-CB751844846B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1094,8 +1187,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DA1A84-BA3A-4C32-8617-E998C035ED27}">
-  <dimension ref="B2:J206"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9887442B-5356-4EDF-A4A6-741997C508AD}">
+  <dimension ref="B2:J232"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1119,7 +1212,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1164,7 +1257,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1196,12 +1289,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>27599556</v>
+        <v>28559186</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1212,17 +1305,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="C13" s="5">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="F13" s="5">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1249,13 +1342,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1272,10 +1365,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>79200</v>
+        <v>11388</v>
       </c>
       <c r="G16" s="18">
-        <v>2935500</v>
+        <v>1423500</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1292,13 +1385,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>41676</v>
+        <v>11388</v>
       </c>
       <c r="G17" s="18">
-        <v>1491500</v>
+        <v>1423500</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1309,19 +1402,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F18" s="18">
-        <v>41676</v>
+        <v>54048</v>
       </c>
       <c r="G18" s="18">
-        <v>1491500</v>
+        <v>1351200</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1332,19 +1425,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>41676</v>
+        <v>52000</v>
       </c>
       <c r="G19" s="18">
-        <v>1491500</v>
+        <v>1300000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1355,19 +1448,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>41676</v>
+        <v>11388</v>
       </c>
       <c r="G20" s="18">
-        <v>1491500</v>
+        <v>1423500</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1378,19 +1471,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F21" s="18">
-        <v>41676</v>
+        <v>2116</v>
       </c>
       <c r="G21" s="18">
-        <v>1491500</v>
+        <v>1587000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1401,19 +1494,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F22" s="18">
-        <v>41676</v>
+        <v>2116</v>
       </c>
       <c r="G22" s="18">
-        <v>1491500</v>
+        <v>1587000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1424,19 +1517,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F23" s="18">
-        <v>41676</v>
+        <v>54048</v>
       </c>
       <c r="G23" s="18">
-        <v>1491500</v>
+        <v>1351200</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1447,19 +1540,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F24" s="18">
-        <v>319520</v>
+        <v>54048</v>
       </c>
       <c r="G24" s="18">
-        <v>11411439</v>
+        <v>1351200</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1470,19 +1563,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F25" s="18">
-        <v>41676</v>
+        <v>11388</v>
       </c>
       <c r="G25" s="18">
-        <v>1491500</v>
+        <v>1423500</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1493,19 +1586,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F26" s="18">
-        <v>41676</v>
+        <v>54048</v>
       </c>
       <c r="G26" s="18">
-        <v>1491500</v>
+        <v>1351200</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1516,19 +1609,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F27" s="18">
-        <v>319520</v>
+        <v>83544</v>
       </c>
       <c r="G27" s="18">
-        <v>11411439</v>
+        <v>2088600</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1539,19 +1632,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F28" s="18">
-        <v>41676</v>
+        <v>83544</v>
       </c>
       <c r="G28" s="18">
-        <v>1491500</v>
+        <v>2088600</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1562,19 +1655,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F29" s="18">
-        <v>319520</v>
+        <v>83544</v>
       </c>
       <c r="G29" s="18">
-        <v>11411439</v>
+        <v>2088600</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1585,19 +1678,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F30" s="18">
-        <v>319520</v>
+        <v>83544</v>
       </c>
       <c r="G30" s="18">
-        <v>11411439</v>
+        <v>2088600</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1608,19 +1701,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F31" s="18">
-        <v>41676</v>
+        <v>83544</v>
       </c>
       <c r="G31" s="18">
-        <v>1491500</v>
+        <v>2088600</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1631,19 +1724,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F32" s="18">
-        <v>17556</v>
+        <v>83544</v>
       </c>
       <c r="G32" s="18">
-        <v>877803</v>
+        <v>2088600</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1654,19 +1747,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F33" s="18">
-        <v>319520</v>
+        <v>83544</v>
       </c>
       <c r="G33" s="18">
-        <v>11411439</v>
+        <v>2088600</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1677,19 +1770,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F34" s="18">
-        <v>41676</v>
+        <v>83544</v>
       </c>
       <c r="G34" s="18">
-        <v>1491500</v>
+        <v>2088600</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1700,19 +1793,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F35" s="18">
-        <v>319520</v>
+        <v>83544</v>
       </c>
       <c r="G35" s="18">
-        <v>11411439</v>
+        <v>2088600</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1723,19 +1816,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F36" s="18">
-        <v>41676</v>
+        <v>83544</v>
       </c>
       <c r="G36" s="18">
-        <v>1491500</v>
+        <v>2088600</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1746,19 +1839,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F37" s="18">
-        <v>319520</v>
+        <v>83544</v>
       </c>
       <c r="G37" s="18">
-        <v>11411439</v>
+        <v>2088600</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1769,19 +1862,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F38" s="18">
-        <v>41676</v>
+        <v>83544</v>
       </c>
       <c r="G38" s="18">
-        <v>1491500</v>
+        <v>2088600</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1792,19 +1885,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F39" s="18">
-        <v>41676</v>
+        <v>83544</v>
       </c>
       <c r="G39" s="18">
-        <v>1491500</v>
+        <v>2088600</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1815,19 +1908,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="F40" s="18">
-        <v>319520</v>
+        <v>83544</v>
       </c>
       <c r="G40" s="18">
-        <v>11411439</v>
+        <v>2088600</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1838,19 +1931,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F41" s="18">
-        <v>41676</v>
+        <v>83544</v>
       </c>
       <c r="G41" s="18">
-        <v>1491500</v>
+        <v>2088600</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1861,19 +1954,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F42" s="18">
-        <v>319520</v>
+        <v>83544</v>
       </c>
       <c r="G42" s="18">
-        <v>11411439</v>
+        <v>2088600</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1884,19 +1977,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F43" s="18">
-        <v>41676</v>
+        <v>83544</v>
       </c>
       <c r="G43" s="18">
-        <v>1491500</v>
+        <v>2088600</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1907,19 +2000,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F44" s="18">
-        <v>319520</v>
+        <v>83544</v>
       </c>
       <c r="G44" s="18">
-        <v>11411439</v>
+        <v>2088600</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1930,19 +2023,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F45" s="18">
-        <v>41676</v>
+        <v>83544</v>
       </c>
       <c r="G45" s="18">
-        <v>1491500</v>
+        <v>2088600</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1953,19 +2046,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F46" s="18">
-        <v>319520</v>
+        <v>83544</v>
       </c>
       <c r="G46" s="18">
-        <v>11411439</v>
+        <v>2088600</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1976,19 +2069,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F47" s="18">
-        <v>41676</v>
+        <v>83544</v>
       </c>
       <c r="G47" s="18">
-        <v>1491500</v>
+        <v>2088600</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1999,19 +2092,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F48" s="18">
-        <v>319520</v>
+        <v>83544</v>
       </c>
       <c r="G48" s="18">
-        <v>11411439</v>
+        <v>2088600</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2022,19 +2115,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F49" s="18">
-        <v>41676</v>
+        <v>83544</v>
       </c>
       <c r="G49" s="18">
-        <v>1491500</v>
+        <v>2088600</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2045,19 +2138,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F50" s="18">
-        <v>319520</v>
+        <v>83544</v>
       </c>
       <c r="G50" s="18">
-        <v>11411439</v>
+        <v>2088600</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2068,19 +2161,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="F51" s="18">
-        <v>319520</v>
+        <v>83544</v>
       </c>
       <c r="G51" s="18">
-        <v>11411439</v>
+        <v>2088600</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2091,19 +2184,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="F52" s="18">
-        <v>41676</v>
+        <v>83544</v>
       </c>
       <c r="G52" s="18">
-        <v>1491500</v>
+        <v>2088600</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2114,13 +2207,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="F53" s="18">
         <v>83544</v>
@@ -2137,19 +2230,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F54" s="18">
-        <v>41676</v>
+        <v>83544</v>
       </c>
       <c r="G54" s="18">
-        <v>1491500</v>
+        <v>2088600</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2160,19 +2253,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="F55" s="18">
-        <v>319520</v>
+        <v>83544</v>
       </c>
       <c r="G55" s="18">
-        <v>11411439</v>
+        <v>2088600</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2183,13 +2276,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="F56" s="18">
         <v>83544</v>
@@ -2206,19 +2299,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="F57" s="18">
-        <v>41676</v>
+        <v>83544</v>
       </c>
       <c r="G57" s="18">
-        <v>1491500</v>
+        <v>2088600</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2229,19 +2322,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F58" s="18">
-        <v>319520</v>
+        <v>83544</v>
       </c>
       <c r="G58" s="18">
-        <v>11411439</v>
+        <v>2088600</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2252,19 +2345,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="F59" s="18">
-        <v>41676</v>
+        <v>83544</v>
       </c>
       <c r="G59" s="18">
-        <v>1491500</v>
+        <v>2088600</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2275,19 +2368,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="F60" s="18">
-        <v>319520</v>
+        <v>83544</v>
       </c>
       <c r="G60" s="18">
-        <v>11411439</v>
+        <v>2088600</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2298,13 +2391,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="F61" s="18">
         <v>83544</v>
@@ -2321,19 +2414,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F62" s="18">
-        <v>319520</v>
+        <v>83544</v>
       </c>
       <c r="G62" s="18">
-        <v>11411439</v>
+        <v>2088600</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2344,19 +2437,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="F63" s="18">
-        <v>41676</v>
+        <v>83544</v>
       </c>
       <c r="G63" s="18">
-        <v>1491500</v>
+        <v>2088600</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2367,13 +2460,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="F64" s="18">
         <v>83544</v>
@@ -2390,19 +2483,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="F65" s="18">
-        <v>319520</v>
+        <v>83544</v>
       </c>
       <c r="G65" s="18">
-        <v>11411439</v>
+        <v>2088600</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2413,19 +2506,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F66" s="18">
-        <v>41676</v>
+        <v>83544</v>
       </c>
       <c r="G66" s="18">
-        <v>1491500</v>
+        <v>2088600</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2436,13 +2529,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="F67" s="18">
         <v>83544</v>
@@ -2459,19 +2552,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="F68" s="18">
-        <v>41676</v>
+        <v>83544</v>
       </c>
       <c r="G68" s="18">
-        <v>1491500</v>
+        <v>2088600</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2482,13 +2575,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="F69" s="18">
         <v>83544</v>
@@ -2505,19 +2598,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="F70" s="18">
-        <v>319520</v>
+        <v>83544</v>
       </c>
       <c r="G70" s="18">
-        <v>11411439</v>
+        <v>2088600</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2528,19 +2621,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="F71" s="18">
-        <v>41676</v>
+        <v>83544</v>
       </c>
       <c r="G71" s="18">
-        <v>1491500</v>
+        <v>2088600</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2551,19 +2644,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="F72" s="18">
-        <v>319520</v>
+        <v>83544</v>
       </c>
       <c r="G72" s="18">
-        <v>11411439</v>
+        <v>2088600</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2574,19 +2667,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F73" s="18">
-        <v>83544</v>
+        <v>3935</v>
       </c>
       <c r="G73" s="18">
-        <v>2088600</v>
+        <v>2951100</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2597,19 +2690,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="F74" s="18">
-        <v>319520</v>
+        <v>3935</v>
       </c>
       <c r="G74" s="18">
-        <v>11411439</v>
+        <v>2951100</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2620,19 +2713,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F75" s="18">
-        <v>41676</v>
+        <v>319520</v>
       </c>
       <c r="G75" s="18">
-        <v>1491500</v>
+        <v>11411439</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2643,19 +2736,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F76" s="18">
-        <v>83544</v>
+        <v>319520</v>
       </c>
       <c r="G76" s="18">
-        <v>2088600</v>
+        <v>11411439</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2666,13 +2759,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="F77" s="18">
         <v>319520</v>
@@ -2689,19 +2782,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F78" s="18">
-        <v>83544</v>
+        <v>319520</v>
       </c>
       <c r="G78" s="18">
-        <v>2088600</v>
+        <v>11411439</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2712,19 +2805,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="F79" s="18">
-        <v>41676</v>
+        <v>319520</v>
       </c>
       <c r="G79" s="18">
-        <v>1491500</v>
+        <v>11411439</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2735,13 +2828,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F80" s="18">
         <v>319520</v>
@@ -2758,19 +2851,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F81" s="18">
-        <v>41676</v>
+        <v>319520</v>
       </c>
       <c r="G81" s="18">
-        <v>1491500</v>
+        <v>11411439</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2781,19 +2874,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E82" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D82" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E82" s="16" t="s">
-        <v>50</v>
-      </c>
       <c r="F82" s="18">
-        <v>83544</v>
+        <v>319520</v>
       </c>
       <c r="G82" s="18">
-        <v>2088600</v>
+        <v>11411439</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2804,19 +2897,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F83" s="18">
-        <v>41676</v>
+        <v>319520</v>
       </c>
       <c r="G83" s="18">
-        <v>1491500</v>
+        <v>11411439</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2827,13 +2920,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F84" s="18">
         <v>319520</v>
@@ -2850,19 +2943,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F85" s="18">
-        <v>83544</v>
+        <v>319520</v>
       </c>
       <c r="G85" s="18">
-        <v>2088600</v>
+        <v>11411439</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2873,19 +2966,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F86" s="18">
-        <v>83544</v>
+        <v>319520</v>
       </c>
       <c r="G86" s="18">
-        <v>2088600</v>
+        <v>11411439</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2896,19 +2989,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F87" s="18">
-        <v>41676</v>
+        <v>319520</v>
       </c>
       <c r="G87" s="18">
-        <v>1491500</v>
+        <v>11411439</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2919,13 +3012,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F88" s="18">
         <v>319520</v>
@@ -2942,19 +3035,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F89" s="18">
-        <v>83544</v>
+        <v>319520</v>
       </c>
       <c r="G89" s="18">
-        <v>2088600</v>
+        <v>11411439</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2965,13 +3058,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F90" s="18">
         <v>319520</v>
@@ -2988,19 +3081,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F91" s="18">
-        <v>41676</v>
+        <v>319520</v>
       </c>
       <c r="G91" s="18">
-        <v>1491500</v>
+        <v>11411439</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3011,19 +3104,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="F92" s="18">
-        <v>41676</v>
+        <v>319520</v>
       </c>
       <c r="G92" s="18">
-        <v>1491500</v>
+        <v>11411439</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3034,19 +3127,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F93" s="18">
-        <v>83544</v>
+        <v>319520</v>
       </c>
       <c r="G93" s="18">
-        <v>2088600</v>
+        <v>11411439</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3057,13 +3150,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F94" s="18">
         <v>319520</v>
@@ -3080,19 +3173,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F95" s="18">
-        <v>83544</v>
+        <v>319520</v>
       </c>
       <c r="G95" s="18">
-        <v>2088600</v>
+        <v>11411439</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3103,19 +3196,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F96" s="18">
-        <v>41676</v>
+        <v>319520</v>
       </c>
       <c r="G96" s="18">
-        <v>1491500</v>
+        <v>11411439</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3126,13 +3219,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F97" s="18">
         <v>319520</v>
@@ -3149,13 +3242,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F98" s="18">
         <v>319520</v>
@@ -3172,19 +3265,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F99" s="18">
-        <v>41676</v>
+        <v>319520</v>
       </c>
       <c r="G99" s="18">
-        <v>1491500</v>
+        <v>11411439</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3195,19 +3288,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E100" s="16" t="s">
         <v>56</v>
       </c>
       <c r="F100" s="18">
-        <v>83544</v>
+        <v>319520</v>
       </c>
       <c r="G100" s="18">
-        <v>2088600</v>
+        <v>11411439</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3218,19 +3311,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E101" s="16" t="s">
         <v>57</v>
       </c>
       <c r="F101" s="18">
-        <v>83544</v>
+        <v>319520</v>
       </c>
       <c r="G101" s="18">
-        <v>2088600</v>
+        <v>11411439</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3241,19 +3334,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F102" s="18">
-        <v>41676</v>
+        <v>319520</v>
       </c>
       <c r="G102" s="18">
-        <v>1491500</v>
+        <v>11411439</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3264,13 +3357,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F103" s="18">
         <v>319520</v>
@@ -3287,13 +3380,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F104" s="18">
         <v>319520</v>
@@ -3310,19 +3403,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F105" s="18">
-        <v>83544</v>
+        <v>319520</v>
       </c>
       <c r="G105" s="18">
-        <v>2088600</v>
+        <v>11411439</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3333,19 +3426,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F106" s="18">
-        <v>41676</v>
+        <v>319520</v>
       </c>
       <c r="G106" s="18">
-        <v>1491500</v>
+        <v>11411439</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3356,19 +3449,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F107" s="18">
-        <v>41676</v>
+        <v>319520</v>
       </c>
       <c r="G107" s="18">
-        <v>1491500</v>
+        <v>11411439</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3379,13 +3472,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F108" s="18">
         <v>319520</v>
@@ -3402,19 +3495,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F109" s="18">
-        <v>83544</v>
+        <v>319520</v>
       </c>
       <c r="G109" s="18">
-        <v>2088600</v>
+        <v>11411439</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3425,13 +3518,13 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F110" s="18">
         <v>319520</v>
@@ -3448,19 +3541,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F111" s="18">
-        <v>83544</v>
+        <v>319520</v>
       </c>
       <c r="G111" s="18">
-        <v>2088600</v>
+        <v>11411439</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3471,19 +3564,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F112" s="18">
-        <v>41676</v>
+        <v>319520</v>
       </c>
       <c r="G112" s="18">
-        <v>1491500</v>
+        <v>11411439</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3494,13 +3587,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F113" s="18">
         <v>319520</v>
@@ -3517,19 +3610,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F114" s="18">
-        <v>83544</v>
+        <v>319520</v>
       </c>
       <c r="G114" s="18">
-        <v>2088600</v>
+        <v>11411439</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3540,19 +3633,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F115" s="18">
-        <v>41676</v>
+        <v>319520</v>
       </c>
       <c r="G115" s="18">
-        <v>1491500</v>
+        <v>11411439</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3563,19 +3656,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F116" s="18">
-        <v>83544</v>
+        <v>319520</v>
       </c>
       <c r="G116" s="18">
-        <v>2088600</v>
+        <v>11411439</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3586,13 +3679,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="F117" s="18">
         <v>319520</v>
@@ -3609,19 +3702,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F118" s="18">
-        <v>41676</v>
+        <v>319520</v>
       </c>
       <c r="G118" s="18">
-        <v>1491500</v>
+        <v>11411439</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3632,19 +3725,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="F119" s="18">
-        <v>83544</v>
+        <v>319520</v>
       </c>
       <c r="G119" s="18">
-        <v>2088600</v>
+        <v>11411439</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3655,13 +3748,13 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F120" s="18">
         <v>319520</v>
@@ -3678,13 +3771,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="F121" s="18">
         <v>319520</v>
@@ -3701,19 +3794,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="F122" s="18">
-        <v>83544</v>
+        <v>319520</v>
       </c>
       <c r="G122" s="18">
-        <v>2088600</v>
+        <v>11411439</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3724,19 +3817,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="F123" s="18">
-        <v>83544</v>
+        <v>319520</v>
       </c>
       <c r="G123" s="18">
-        <v>2088600</v>
+        <v>11411439</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3747,13 +3840,13 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="F124" s="18">
         <v>319520</v>
@@ -3770,19 +3863,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="F125" s="18">
-        <v>83544</v>
+        <v>319520</v>
       </c>
       <c r="G125" s="18">
-        <v>2088600</v>
+        <v>11411439</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3793,13 +3886,13 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F126" s="18">
         <v>319520</v>
@@ -3816,13 +3909,13 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="F127" s="18">
         <v>319520</v>
@@ -3839,19 +3932,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="F128" s="18">
-        <v>83544</v>
+        <v>319520</v>
       </c>
       <c r="G128" s="18">
-        <v>2088600</v>
+        <v>11411439</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3862,13 +3955,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="F129" s="18">
         <v>319520</v>
@@ -3885,19 +3978,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="F130" s="18">
-        <v>83544</v>
+        <v>319520</v>
       </c>
       <c r="G130" s="18">
-        <v>2088600</v>
+        <v>11411439</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -3908,13 +4001,13 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="F131" s="18">
         <v>319520</v>
@@ -3931,19 +4024,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="F132" s="18">
-        <v>83544</v>
+        <v>319520</v>
       </c>
       <c r="G132" s="18">
-        <v>2088600</v>
+        <v>11411439</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -3954,19 +4047,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="F133" s="18">
-        <v>54048</v>
+        <v>319520</v>
       </c>
       <c r="G133" s="18">
-        <v>1351200</v>
+        <v>11411439</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -3977,19 +4070,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="F134" s="18">
-        <v>117420</v>
+        <v>319520</v>
       </c>
       <c r="G134" s="18">
-        <v>2935500</v>
+        <v>11411439</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4000,19 +4093,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="F135" s="18">
-        <v>54048</v>
+        <v>2116</v>
       </c>
       <c r="G135" s="18">
-        <v>1351200</v>
+        <v>1587000</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4023,19 +4116,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="F136" s="18">
-        <v>54048</v>
+        <v>11388</v>
       </c>
       <c r="G136" s="18">
-        <v>1351200</v>
+        <v>1423500</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4046,19 +4139,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="F137" s="18">
-        <v>54048</v>
+        <v>117420</v>
       </c>
       <c r="G137" s="18">
-        <v>1351200</v>
+        <v>2935500</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4069,19 +4162,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="F138" s="18">
-        <v>52000</v>
+        <v>117420</v>
       </c>
       <c r="G138" s="18">
-        <v>1300000</v>
+        <v>2935500</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4092,19 +4185,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="F139" s="18">
-        <v>83544</v>
+        <v>117420</v>
       </c>
       <c r="G139" s="18">
-        <v>2088600</v>
+        <v>2935500</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4115,19 +4208,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="F140" s="18">
-        <v>319520</v>
+        <v>117420</v>
       </c>
       <c r="G140" s="18">
-        <v>11411439</v>
+        <v>2935500</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4138,13 +4231,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="F141" s="18">
         <v>117420</v>
@@ -4161,19 +4254,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="F142" s="18">
-        <v>319520</v>
+        <v>117420</v>
       </c>
       <c r="G142" s="18">
-        <v>11411439</v>
+        <v>2935500</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4184,13 +4277,13 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="F143" s="18">
         <v>117420</v>
@@ -4207,19 +4300,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D144" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E144" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D144" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E144" s="16" t="s">
-        <v>81</v>
-      </c>
       <c r="F144" s="18">
-        <v>83544</v>
+        <v>117420</v>
       </c>
       <c r="G144" s="18">
-        <v>2088600</v>
+        <v>2935500</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4230,19 +4323,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="F145" s="18">
-        <v>59660</v>
+        <v>117420</v>
       </c>
       <c r="G145" s="18">
-        <v>1491500</v>
+        <v>2935500</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4253,13 +4346,13 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="F146" s="18">
         <v>117420</v>
@@ -4276,19 +4369,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="F147" s="18">
-        <v>83544</v>
+        <v>117420</v>
       </c>
       <c r="G147" s="18">
-        <v>2088600</v>
+        <v>2935500</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4299,19 +4392,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="F148" s="18">
-        <v>319520</v>
+        <v>117420</v>
       </c>
       <c r="G148" s="18">
-        <v>11411439</v>
+        <v>2935500</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4322,19 +4415,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="F149" s="18">
-        <v>83544</v>
+        <v>117420</v>
       </c>
       <c r="G149" s="18">
-        <v>2088600</v>
+        <v>2935500</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4345,13 +4438,13 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="F150" s="18">
         <v>117420</v>
@@ -4368,19 +4461,19 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="F151" s="18">
-        <v>319520</v>
+        <v>117420</v>
       </c>
       <c r="G151" s="18">
-        <v>11411439</v>
+        <v>2935500</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -4391,19 +4484,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="F152" s="18">
-        <v>59660</v>
+        <v>117420</v>
       </c>
       <c r="G152" s="18">
-        <v>1491500</v>
+        <v>2935500</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4414,19 +4507,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="F153" s="18">
-        <v>59660</v>
+        <v>117420</v>
       </c>
       <c r="G153" s="18">
-        <v>1491500</v>
+        <v>2935500</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4437,19 +4530,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="F154" s="18">
-        <v>319520</v>
+        <v>117420</v>
       </c>
       <c r="G154" s="18">
-        <v>11411439</v>
+        <v>2935500</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4460,19 +4553,19 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="F155" s="18">
-        <v>83544</v>
+        <v>79200</v>
       </c>
       <c r="G155" s="18">
-        <v>2088600</v>
+        <v>2935500</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4483,19 +4576,19 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="F156" s="18">
-        <v>117420</v>
+        <v>41676</v>
       </c>
       <c r="G156" s="18">
-        <v>2935500</v>
+        <v>1491500</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
@@ -4506,19 +4599,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="F157" s="18">
-        <v>117420</v>
+        <v>41676</v>
       </c>
       <c r="G157" s="18">
-        <v>2935500</v>
+        <v>1491500</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4529,19 +4622,19 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="F158" s="18">
-        <v>319520</v>
+        <v>41676</v>
       </c>
       <c r="G158" s="18">
-        <v>11411439</v>
+        <v>1491500</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -4552,19 +4645,19 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="F159" s="18">
-        <v>83544</v>
+        <v>41676</v>
       </c>
       <c r="G159" s="18">
-        <v>2088600</v>
+        <v>1491500</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4575,16 +4668,16 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="F160" s="18">
-        <v>59660</v>
+        <v>41676</v>
       </c>
       <c r="G160" s="18">
         <v>1491500</v>
@@ -4598,19 +4691,19 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F161" s="18">
-        <v>117420</v>
+        <v>41676</v>
       </c>
       <c r="G161" s="18">
-        <v>2935500</v>
+        <v>1491500</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -4621,19 +4714,19 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="F162" s="18">
-        <v>319520</v>
+        <v>41676</v>
       </c>
       <c r="G162" s="18">
-        <v>11411439</v>
+        <v>1491500</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4644,16 +4737,16 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="F163" s="18">
-        <v>59660</v>
+        <v>41676</v>
       </c>
       <c r="G163" s="18">
         <v>1491500</v>
@@ -4667,19 +4760,19 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="F164" s="18">
-        <v>83544</v>
+        <v>41676</v>
       </c>
       <c r="G164" s="18">
-        <v>2088600</v>
+        <v>1491500</v>
       </c>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
@@ -4690,16 +4783,16 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="F165" s="18">
-        <v>59660</v>
+        <v>41676</v>
       </c>
       <c r="G165" s="18">
         <v>1491500</v>
@@ -4713,19 +4806,19 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="F166" s="18">
-        <v>83544</v>
+        <v>41676</v>
       </c>
       <c r="G166" s="18">
-        <v>2088600</v>
+        <v>1491500</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -4736,19 +4829,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="F167" s="18">
-        <v>319520</v>
+        <v>41676</v>
       </c>
       <c r="G167" s="18">
-        <v>11411439</v>
+        <v>1491500</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -4759,19 +4852,19 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="F168" s="18">
-        <v>117420</v>
+        <v>41676</v>
       </c>
       <c r="G168" s="18">
-        <v>2935500</v>
+        <v>1491500</v>
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -4782,16 +4875,16 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="F169" s="18">
-        <v>59660</v>
+        <v>41676</v>
       </c>
       <c r="G169" s="18">
         <v>1491500</v>
@@ -4805,19 +4898,19 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="F170" s="18">
-        <v>83544</v>
+        <v>41676</v>
       </c>
       <c r="G170" s="18">
-        <v>2088600</v>
+        <v>1491500</v>
       </c>
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
@@ -4828,19 +4921,19 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F171" s="18">
-        <v>117420</v>
+        <v>41676</v>
       </c>
       <c r="G171" s="18">
-        <v>2935500</v>
+        <v>1491500</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -4851,19 +4944,19 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="F172" s="18">
-        <v>319520</v>
+        <v>41676</v>
       </c>
       <c r="G172" s="18">
-        <v>11411439</v>
+        <v>1491500</v>
       </c>
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
@@ -4874,19 +4967,19 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="F173" s="18">
-        <v>117420</v>
+        <v>41676</v>
       </c>
       <c r="G173" s="18">
-        <v>2935500</v>
+        <v>1491500</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -4897,16 +4990,16 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="F174" s="18">
-        <v>59660</v>
+        <v>41676</v>
       </c>
       <c r="G174" s="18">
         <v>1491500</v>
@@ -4920,19 +5013,19 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="F175" s="18">
-        <v>83544</v>
+        <v>41676</v>
       </c>
       <c r="G175" s="18">
-        <v>2088600</v>
+        <v>1491500</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -4943,19 +5036,19 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F176" s="18">
-        <v>319520</v>
+        <v>41676</v>
       </c>
       <c r="G176" s="18">
-        <v>11411439</v>
+        <v>1491500</v>
       </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
@@ -4966,19 +5059,19 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F177" s="18">
-        <v>319520</v>
+        <v>41676</v>
       </c>
       <c r="G177" s="18">
-        <v>11411439</v>
+        <v>1491500</v>
       </c>
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
@@ -4989,16 +5082,16 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F178" s="18">
-        <v>59660</v>
+        <v>41676</v>
       </c>
       <c r="G178" s="18">
         <v>1491500</v>
@@ -5012,19 +5105,19 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F179" s="18">
-        <v>83544</v>
+        <v>41676</v>
       </c>
       <c r="G179" s="18">
-        <v>2088600</v>
+        <v>1491500</v>
       </c>
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
@@ -5035,19 +5128,19 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F180" s="18">
-        <v>117420</v>
+        <v>41676</v>
       </c>
       <c r="G180" s="18">
-        <v>2935500</v>
+        <v>1491500</v>
       </c>
       <c r="H180" s="19"/>
       <c r="I180" s="19"/>
@@ -5058,19 +5151,19 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F181" s="18">
-        <v>117420</v>
+        <v>41676</v>
       </c>
       <c r="G181" s="18">
-        <v>2935500</v>
+        <v>1491500</v>
       </c>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
@@ -5081,16 +5174,16 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F182" s="18">
-        <v>59660</v>
+        <v>41676</v>
       </c>
       <c r="G182" s="18">
         <v>1491500</v>
@@ -5104,19 +5197,19 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F183" s="18">
-        <v>319520</v>
+        <v>41676</v>
       </c>
       <c r="G183" s="18">
-        <v>11411439</v>
+        <v>1491500</v>
       </c>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
@@ -5127,19 +5220,19 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F184" s="18">
-        <v>83544</v>
+        <v>41676</v>
       </c>
       <c r="G184" s="18">
-        <v>2088600</v>
+        <v>1491500</v>
       </c>
       <c r="H184" s="19"/>
       <c r="I184" s="19"/>
@@ -5150,19 +5243,19 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F185" s="18">
-        <v>319520</v>
+        <v>41676</v>
       </c>
       <c r="G185" s="18">
-        <v>11411439</v>
+        <v>1491500</v>
       </c>
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
@@ -5173,19 +5266,19 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F186" s="18">
-        <v>117420</v>
+        <v>41676</v>
       </c>
       <c r="G186" s="18">
-        <v>2935500</v>
+        <v>1491500</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
@@ -5196,19 +5289,19 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F187" s="18">
-        <v>83544</v>
+        <v>41676</v>
       </c>
       <c r="G187" s="18">
-        <v>2088600</v>
+        <v>1491500</v>
       </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
@@ -5219,16 +5312,16 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F188" s="18">
-        <v>59660</v>
+        <v>41676</v>
       </c>
       <c r="G188" s="18">
         <v>1491500</v>
@@ -5242,19 +5335,19 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F189" s="18">
-        <v>319520</v>
+        <v>41676</v>
       </c>
       <c r="G189" s="18">
-        <v>11411439</v>
+        <v>1491500</v>
       </c>
       <c r="H189" s="19"/>
       <c r="I189" s="19"/>
@@ -5265,19 +5358,19 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F190" s="18">
-        <v>117420</v>
+        <v>41676</v>
       </c>
       <c r="G190" s="18">
-        <v>2935500</v>
+        <v>1491500</v>
       </c>
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
@@ -5288,16 +5381,16 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F191" s="18">
-        <v>59660</v>
+        <v>41676</v>
       </c>
       <c r="G191" s="18">
         <v>1491500</v>
@@ -5311,19 +5404,19 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F192" s="18">
-        <v>83544</v>
+        <v>41676</v>
       </c>
       <c r="G192" s="18">
-        <v>2088600</v>
+        <v>1491500</v>
       </c>
       <c r="H192" s="19"/>
       <c r="I192" s="19"/>
@@ -5334,19 +5427,19 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F193" s="18">
-        <v>83544</v>
+        <v>41676</v>
       </c>
       <c r="G193" s="18">
-        <v>2088600</v>
+        <v>1491500</v>
       </c>
       <c r="H193" s="19"/>
       <c r="I193" s="19"/>
@@ -5357,19 +5450,19 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F194" s="18">
-        <v>117420</v>
+        <v>41676</v>
       </c>
       <c r="G194" s="18">
-        <v>2935500</v>
+        <v>1491500</v>
       </c>
       <c r="H194" s="19"/>
       <c r="I194" s="19"/>
@@ -5380,16 +5473,16 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="F195" s="18">
-        <v>59660</v>
+        <v>41676</v>
       </c>
       <c r="G195" s="18">
         <v>1491500</v>
@@ -5403,19 +5496,19 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="F196" s="18">
-        <v>319520</v>
+        <v>41676</v>
       </c>
       <c r="G196" s="18">
-        <v>11411439</v>
+        <v>1491500</v>
       </c>
       <c r="H196" s="19"/>
       <c r="I196" s="19"/>
@@ -5426,19 +5519,19 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="F197" s="18">
-        <v>83544</v>
+        <v>41676</v>
       </c>
       <c r="G197" s="18">
-        <v>2088600</v>
+        <v>1491500</v>
       </c>
       <c r="H197" s="19"/>
       <c r="I197" s="19"/>
@@ -5449,19 +5542,19 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F198" s="18">
-        <v>117420</v>
+        <v>41676</v>
       </c>
       <c r="G198" s="18">
-        <v>2935500</v>
+        <v>1491500</v>
       </c>
       <c r="H198" s="19"/>
       <c r="I198" s="19"/>
@@ -5472,75 +5565,673 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F199" s="18">
-        <v>319520</v>
+        <v>17556</v>
       </c>
       <c r="G199" s="18">
-        <v>11411439</v>
+        <v>877803</v>
       </c>
       <c r="H199" s="19"/>
       <c r="I199" s="19"/>
       <c r="J199" s="20"/>
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B200" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C200" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D200" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="E200" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="F200" s="24">
+      <c r="B200" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D200" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E200" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F200" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G200" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H200" s="19"/>
+      <c r="I200" s="19"/>
+      <c r="J200" s="20"/>
+    </row>
+    <row r="201" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B201" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C201" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D201" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E201" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F201" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G201" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H201" s="19"/>
+      <c r="I201" s="19"/>
+      <c r="J201" s="20"/>
+    </row>
+    <row r="202" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B202" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C202" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D202" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E202" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F202" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G202" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H202" s="19"/>
+      <c r="I202" s="19"/>
+      <c r="J202" s="20"/>
+    </row>
+    <row r="203" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B203" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C203" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D203" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E203" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F203" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G203" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H203" s="19"/>
+      <c r="I203" s="19"/>
+      <c r="J203" s="20"/>
+    </row>
+    <row r="204" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B204" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C204" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D204" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E204" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F204" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G204" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H204" s="19"/>
+      <c r="I204" s="19"/>
+      <c r="J204" s="20"/>
+    </row>
+    <row r="205" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B205" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D205" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E205" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F205" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G205" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H205" s="19"/>
+      <c r="I205" s="19"/>
+      <c r="J205" s="20"/>
+    </row>
+    <row r="206" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B206" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C206" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D206" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E206" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F206" s="18">
         <v>59660</v>
       </c>
-      <c r="G200" s="24">
+      <c r="G206" s="18">
         <v>1491500</v>
       </c>
-      <c r="H200" s="25"/>
-      <c r="I200" s="25"/>
-      <c r="J200" s="26"/>
-    </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B205" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="C205" s="32"/>
-      <c r="H205" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I205" s="1"/>
-      <c r="J205" s="1"/>
-    </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B206" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="C206" s="32"/>
-      <c r="H206" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I206" s="1"/>
-      <c r="J206" s="1"/>
+      <c r="H206" s="19"/>
+      <c r="I206" s="19"/>
+      <c r="J206" s="20"/>
+    </row>
+    <row r="207" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B207" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C207" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D207" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E207" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F207" s="18">
+        <v>59660</v>
+      </c>
+      <c r="G207" s="18">
+        <v>1491500</v>
+      </c>
+      <c r="H207" s="19"/>
+      <c r="I207" s="19"/>
+      <c r="J207" s="20"/>
+    </row>
+    <row r="208" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B208" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C208" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D208" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E208" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F208" s="18">
+        <v>59660</v>
+      </c>
+      <c r="G208" s="18">
+        <v>1491500</v>
+      </c>
+      <c r="H208" s="19"/>
+      <c r="I208" s="19"/>
+      <c r="J208" s="20"/>
+    </row>
+    <row r="209" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B209" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C209" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D209" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E209" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F209" s="18">
+        <v>59660</v>
+      </c>
+      <c r="G209" s="18">
+        <v>1491500</v>
+      </c>
+      <c r="H209" s="19"/>
+      <c r="I209" s="19"/>
+      <c r="J209" s="20"/>
+    </row>
+    <row r="210" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B210" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C210" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D210" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E210" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F210" s="18">
+        <v>59660</v>
+      </c>
+      <c r="G210" s="18">
+        <v>1491500</v>
+      </c>
+      <c r="H210" s="19"/>
+      <c r="I210" s="19"/>
+      <c r="J210" s="20"/>
+    </row>
+    <row r="211" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B211" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C211" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D211" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E211" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F211" s="18">
+        <v>59660</v>
+      </c>
+      <c r="G211" s="18">
+        <v>1491500</v>
+      </c>
+      <c r="H211" s="19"/>
+      <c r="I211" s="19"/>
+      <c r="J211" s="20"/>
+    </row>
+    <row r="212" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B212" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C212" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D212" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E212" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F212" s="18">
+        <v>59660</v>
+      </c>
+      <c r="G212" s="18">
+        <v>1491500</v>
+      </c>
+      <c r="H212" s="19"/>
+      <c r="I212" s="19"/>
+      <c r="J212" s="20"/>
+    </row>
+    <row r="213" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B213" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C213" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D213" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E213" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F213" s="18">
+        <v>59660</v>
+      </c>
+      <c r="G213" s="18">
+        <v>1491500</v>
+      </c>
+      <c r="H213" s="19"/>
+      <c r="I213" s="19"/>
+      <c r="J213" s="20"/>
+    </row>
+    <row r="214" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B214" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C214" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D214" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E214" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F214" s="18">
+        <v>59660</v>
+      </c>
+      <c r="G214" s="18">
+        <v>1491500</v>
+      </c>
+      <c r="H214" s="19"/>
+      <c r="I214" s="19"/>
+      <c r="J214" s="20"/>
+    </row>
+    <row r="215" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B215" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C215" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D215" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E215" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F215" s="18">
+        <v>59660</v>
+      </c>
+      <c r="G215" s="18">
+        <v>1491500</v>
+      </c>
+      <c r="H215" s="19"/>
+      <c r="I215" s="19"/>
+      <c r="J215" s="20"/>
+    </row>
+    <row r="216" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B216" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C216" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D216" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E216" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F216" s="18">
+        <v>59660</v>
+      </c>
+      <c r="G216" s="18">
+        <v>1491500</v>
+      </c>
+      <c r="H216" s="19"/>
+      <c r="I216" s="19"/>
+      <c r="J216" s="20"/>
+    </row>
+    <row r="217" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B217" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C217" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D217" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E217" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F217" s="18">
+        <v>59660</v>
+      </c>
+      <c r="G217" s="18">
+        <v>1491500</v>
+      </c>
+      <c r="H217" s="19"/>
+      <c r="I217" s="19"/>
+      <c r="J217" s="20"/>
+    </row>
+    <row r="218" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B218" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C218" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D218" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E218" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F218" s="18">
+        <v>59660</v>
+      </c>
+      <c r="G218" s="18">
+        <v>1491500</v>
+      </c>
+      <c r="H218" s="19"/>
+      <c r="I218" s="19"/>
+      <c r="J218" s="20"/>
+    </row>
+    <row r="219" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B219" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C219" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D219" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E219" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F219" s="18">
+        <v>59660</v>
+      </c>
+      <c r="G219" s="18">
+        <v>1491500</v>
+      </c>
+      <c r="H219" s="19"/>
+      <c r="I219" s="19"/>
+      <c r="J219" s="20"/>
+    </row>
+    <row r="220" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B220" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C220" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D220" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E220" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F220" s="18">
+        <v>59660</v>
+      </c>
+      <c r="G220" s="18">
+        <v>1491500</v>
+      </c>
+      <c r="H220" s="19"/>
+      <c r="I220" s="19"/>
+      <c r="J220" s="20"/>
+    </row>
+    <row r="221" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B221" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C221" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D221" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E221" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F221" s="18">
+        <v>11388</v>
+      </c>
+      <c r="G221" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H221" s="19"/>
+      <c r="I221" s="19"/>
+      <c r="J221" s="20"/>
+    </row>
+    <row r="222" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B222" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C222" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D222" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E222" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F222" s="18">
+        <v>11388</v>
+      </c>
+      <c r="G222" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H222" s="19"/>
+      <c r="I222" s="19"/>
+      <c r="J222" s="20"/>
+    </row>
+    <row r="223" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B223" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C223" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D223" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E223" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F223" s="18">
+        <v>11388</v>
+      </c>
+      <c r="G223" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H223" s="19"/>
+      <c r="I223" s="19"/>
+      <c r="J223" s="20"/>
+    </row>
+    <row r="224" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B224" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C224" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D224" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E224" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F224" s="18">
+        <v>11388</v>
+      </c>
+      <c r="G224" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H224" s="19"/>
+      <c r="I224" s="19"/>
+      <c r="J224" s="20"/>
+    </row>
+    <row r="225" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B225" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C225" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D225" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E225" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F225" s="18">
+        <v>11388</v>
+      </c>
+      <c r="G225" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H225" s="19"/>
+      <c r="I225" s="19"/>
+      <c r="J225" s="20"/>
+    </row>
+    <row r="226" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B226" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C226" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D226" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="E226" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F226" s="24">
+        <v>11388</v>
+      </c>
+      <c r="G226" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H226" s="25"/>
+      <c r="I226" s="25"/>
+      <c r="J226" s="26"/>
+    </row>
+    <row r="231" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B231" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C231" s="32"/>
+      <c r="H231" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I231" s="1"/>
+      <c r="J231" s="1"/>
+    </row>
+    <row r="232" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B232" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C232" s="32"/>
+      <c r="H232" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I232" s="1"/>
+      <c r="J232" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B206:C206"/>
-    <mergeCell ref="B205:C205"/>
-    <mergeCell ref="H206:J206"/>
-    <mergeCell ref="H205:J205"/>
+    <mergeCell ref="B232:C232"/>
+    <mergeCell ref="B231:C231"/>
+    <mergeCell ref="H232:J232"/>
+    <mergeCell ref="H231:J231"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9001551071.xlsx
+++ b/Data/EC/NIT-9001551071.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBE06F00-C7A2-4D3D-8D30-95358D9A69FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6468B5D0-0AFC-492C-9990-A4E8388CC0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{17EF2C8C-E2F8-4210-AFD8-860B3CA959AB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D1C990B2-9940-4C16-AA82-33FBCB1F2749}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="111">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,364 +65,277 @@
     <t>CC</t>
   </si>
   <si>
-    <t>1043973103</t>
-  </si>
-  <si>
-    <t>ZHARICK CAROLINA GOMEZ RODRIGUEZ</t>
+    <t>88269879</t>
+  </si>
+  <si>
+    <t>RAMON ESTEBAN GARZON BERMUDEZ</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>8511140</t>
+  </si>
+  <si>
+    <t>FELIX ALFONSO MORALES TABORDA</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>72357057</t>
+  </si>
+  <si>
+    <t>ARMANDO ANDRES RODRIGUEZ GARAY</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>20286454</t>
+  </si>
+  <si>
+    <t>CRISTIAN DAVID ALFARO PALACIOS</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>1102846070</t>
+  </si>
+  <si>
+    <t>JAIRO JOSE RAMIREZ VERGARA</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>45533447</t>
+  </si>
+  <si>
+    <t>LUZ MAIRA ROMERO OROZCO</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>1047393522</t>
+  </si>
+  <si>
+    <t>YURANIS ANYELIN VENECIA GONZALEZ</t>
+  </si>
+  <si>
+    <t>32936578</t>
+  </si>
+  <si>
+    <t>MADELEINE DEL CARMEN LEONES CARMONA</t>
+  </si>
+  <si>
+    <t>1047399049</t>
+  </si>
+  <si>
+    <t>SANDY MARTINEZ MUÑOS</t>
+  </si>
+  <si>
+    <t>22801406</t>
+  </si>
+  <si>
+    <t>SIXTA ELVIRA GOMEZ SANCHEZ</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>1067405527</t>
+  </si>
+  <si>
+    <t>GINA MARCELA AVILA CASTRO</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
   </si>
   <si>
     <t>2506</t>
   </si>
   <si>
-    <t>73009811</t>
-  </si>
-  <si>
-    <t>GUSTAVO ALBERTO TABORDA TOVAR</t>
-  </si>
-  <si>
-    <t>45533447</t>
-  </si>
-  <si>
-    <t>LUZ MAIRA ROMERO OROZCO</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>1047393522</t>
-  </si>
-  <si>
-    <t>YURANIS ANYELIN VENECIA GONZALEZ</t>
-  </si>
-  <si>
-    <t>1043651464</t>
-  </si>
-  <si>
-    <t>CESAR ENRIQUE MORELO MEZA</t>
-  </si>
-  <si>
-    <t>33102270</t>
-  </si>
-  <si>
-    <t>LUCELIS PEREZ BALCEIRO</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>32936578</t>
-  </si>
-  <si>
-    <t>MADELEINE DEL CARMEN LEONES CARMONA</t>
-  </si>
-  <si>
-    <t>1047399049</t>
-  </si>
-  <si>
-    <t>SANDY MARTINEZ MUÑOS</t>
-  </si>
-  <si>
-    <t>1001976695</t>
-  </si>
-  <si>
-    <t>JHOSEP DAVID RAMOS DIAZ</t>
-  </si>
-  <si>
-    <t>22801406</t>
-  </si>
-  <si>
-    <t>SIXTA ELVIRA GOMEZ SANCHEZ</t>
-  </si>
-  <si>
-    <t>1102846070</t>
-  </si>
-  <si>
-    <t>JAIRO JOSE RAMIREZ VERGARA</t>
-  </si>
-  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>1143333341</t>
-  </si>
-  <si>
-    <t>MARLY JUDITH RANGEL PAEZ</t>
-  </si>
-  <si>
-    <t>72357057</t>
-  </si>
-  <si>
-    <t>ARMANDO ANDRES RODRIGUEZ GARAY</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>9147067</t>
-  </si>
-  <si>
-    <t>YAMIL OSORIO VEGA</t>
-  </si>
-  <si>
-    <t>1143399946</t>
-  </si>
-  <si>
-    <t>YENDIS VANESA MONTES ANAYA</t>
-  </si>
-  <si>
-    <t>88269879</t>
-  </si>
-  <si>
-    <t>RAMON ESTEBAN GARZON BERMUDEZ</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>8511140</t>
-  </si>
-  <si>
-    <t>FELIX ALFONSO MORALES TABORDA</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>20286454</t>
-  </si>
-  <si>
-    <t>CRISTIAN DAVID ALFARO PALACIOS</t>
-  </si>
-  <si>
-    <t>1001899220</t>
-  </si>
-  <si>
-    <t>ANDRES FELIPE CABRERA CUADRO</t>
-  </si>
-  <si>
-    <t>1067405527</t>
-  </si>
-  <si>
-    <t>GINA MARCELA AVILA CASTRO</t>
-  </si>
-  <si>
-    <t>1002303415</t>
-  </si>
-  <si>
-    <t>DANIS PAOLA BARRIOS HOYOS</t>
-  </si>
-  <si>
-    <t>1043646670</t>
-  </si>
-  <si>
-    <t>LUIS GABRIEL OSUNA FLOREZ</t>
-  </si>
-  <si>
-    <t>9186508</t>
-  </si>
-  <si>
-    <t>GERONIMO ANDRES SANTOYA ARROYO</t>
-  </si>
-  <si>
-    <t>1101876592</t>
-  </si>
-  <si>
-    <t>GLENDIS ROSA GUTIERREZ ALVAREZ</t>
-  </si>
-  <si>
-    <t>1043648355</t>
-  </si>
-  <si>
-    <t>YIRAMA SEPULVEDA GUARDIA</t>
-  </si>
-  <si>
-    <t>1007469995</t>
-  </si>
-  <si>
-    <t>YINETH DEL CARMEN ORTEGA MACIAS</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -521,7 +434,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -534,9 +449,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -736,23 +649,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -780,10 +693,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -836,7 +749,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4901EA4-CE20-5222-A6B8-CB751844846B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E1A2696-2993-FDD0-CEE8-FEF47DFB7E5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1187,8 +1100,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9887442B-5356-4EDF-A4A6-741997C508AD}">
-  <dimension ref="B2:J232"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967A5D66-D43A-47CB-9205-2B43014001DA}">
+  <dimension ref="B2:J214"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1212,7 +1125,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1257,7 +1170,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1289,12 +1202,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>28559186</v>
+        <v>28759844</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1305,17 +1218,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="C13" s="5">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="F13" s="5">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1342,13 +1255,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1365,10 +1278,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>11388</v>
+        <v>79200</v>
       </c>
       <c r="G16" s="18">
-        <v>1423500</v>
+        <v>2935500</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1385,13 +1298,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>11388</v>
+        <v>41676</v>
       </c>
       <c r="G17" s="18">
-        <v>1423500</v>
+        <v>1587000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1402,19 +1315,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F18" s="18">
-        <v>54048</v>
+        <v>41676</v>
       </c>
       <c r="G18" s="18">
-        <v>1351200</v>
+        <v>1587000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1425,19 +1338,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>52000</v>
+        <v>41676</v>
       </c>
       <c r="G19" s="18">
-        <v>1300000</v>
+        <v>1587000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1448,19 +1361,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
-        <v>11388</v>
+        <v>41676</v>
       </c>
       <c r="G20" s="18">
-        <v>1423500</v>
+        <v>1587000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1471,16 +1384,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
-        <v>2116</v>
+        <v>41676</v>
       </c>
       <c r="G21" s="18">
         <v>1587000</v>
@@ -1494,16 +1407,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
-        <v>2116</v>
+        <v>41676</v>
       </c>
       <c r="G22" s="18">
         <v>1587000</v>
@@ -1517,19 +1430,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
-        <v>54048</v>
+        <v>41676</v>
       </c>
       <c r="G23" s="18">
-        <v>1351200</v>
+        <v>1587000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1540,19 +1453,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F24" s="18">
-        <v>54048</v>
+        <v>319520</v>
       </c>
       <c r="G24" s="18">
-        <v>1351200</v>
+        <v>11411439</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1563,19 +1476,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F25" s="18">
-        <v>11388</v>
+        <v>41676</v>
       </c>
       <c r="G25" s="18">
-        <v>1423500</v>
+        <v>1587000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1586,19 +1499,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F26" s="18">
-        <v>54048</v>
+        <v>319520</v>
       </c>
       <c r="G26" s="18">
-        <v>1351200</v>
+        <v>11411439</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1609,19 +1522,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
-        <v>83544</v>
+        <v>41676</v>
       </c>
       <c r="G27" s="18">
-        <v>2088600</v>
+        <v>1587000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1632,19 +1545,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
-        <v>83544</v>
+        <v>319520</v>
       </c>
       <c r="G28" s="18">
-        <v>2088600</v>
+        <v>11411439</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1655,19 +1568,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F29" s="18">
-        <v>83544</v>
+        <v>41676</v>
       </c>
       <c r="G29" s="18">
-        <v>2088600</v>
+        <v>1587000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1678,19 +1591,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F30" s="18">
-        <v>83544</v>
+        <v>319520</v>
       </c>
       <c r="G30" s="18">
-        <v>2088600</v>
+        <v>11411439</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1701,19 +1614,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>83544</v>
+        <v>41676</v>
       </c>
       <c r="G31" s="18">
-        <v>2088600</v>
+        <v>1587000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1724,19 +1637,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>83544</v>
+        <v>319520</v>
       </c>
       <c r="G32" s="18">
-        <v>2088600</v>
+        <v>11411439</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1747,19 +1660,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F33" s="18">
-        <v>83544</v>
+        <v>41676</v>
       </c>
       <c r="G33" s="18">
-        <v>2088600</v>
+        <v>1587000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1770,19 +1683,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F34" s="18">
-        <v>83544</v>
+        <v>17556</v>
       </c>
       <c r="G34" s="18">
-        <v>2088600</v>
+        <v>877803</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1793,19 +1706,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>83544</v>
+        <v>319520</v>
       </c>
       <c r="G35" s="18">
-        <v>2088600</v>
+        <v>11411439</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1816,19 +1729,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F36" s="18">
-        <v>83544</v>
+        <v>41676</v>
       </c>
       <c r="G36" s="18">
-        <v>2088600</v>
+        <v>1587000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1839,19 +1752,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F37" s="18">
-        <v>83544</v>
+        <v>319520</v>
       </c>
       <c r="G37" s="18">
-        <v>2088600</v>
+        <v>11411439</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1862,19 +1775,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F38" s="18">
-        <v>83544</v>
+        <v>41676</v>
       </c>
       <c r="G38" s="18">
-        <v>2088600</v>
+        <v>1587000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1885,19 +1798,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F39" s="18">
-        <v>83544</v>
+        <v>319520</v>
       </c>
       <c r="G39" s="18">
-        <v>2088600</v>
+        <v>11411439</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1908,19 +1821,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F40" s="18">
-        <v>83544</v>
+        <v>41676</v>
       </c>
       <c r="G40" s="18">
-        <v>2088600</v>
+        <v>1587000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1931,19 +1844,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>46</v>
-      </c>
       <c r="F41" s="18">
-        <v>83544</v>
+        <v>319520</v>
       </c>
       <c r="G41" s="18">
-        <v>2088600</v>
+        <v>11411439</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1954,19 +1867,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>47</v>
-      </c>
       <c r="F42" s="18">
-        <v>83544</v>
+        <v>41676</v>
       </c>
       <c r="G42" s="18">
-        <v>2088600</v>
+        <v>1587000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1977,19 +1890,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D43" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E43" s="16" t="s">
-        <v>48</v>
-      </c>
       <c r="F43" s="18">
-        <v>83544</v>
+        <v>319520</v>
       </c>
       <c r="G43" s="18">
-        <v>2088600</v>
+        <v>11411439</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -2000,19 +1913,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D44" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E44" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F44" s="18">
-        <v>83544</v>
+        <v>41676</v>
       </c>
       <c r="G44" s="18">
-        <v>2088600</v>
+        <v>1587000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -2023,19 +1936,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F45" s="18">
-        <v>83544</v>
+        <v>319520</v>
       </c>
       <c r="G45" s="18">
-        <v>2088600</v>
+        <v>11411439</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -2046,19 +1959,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F46" s="18">
-        <v>83544</v>
+        <v>41676</v>
       </c>
       <c r="G46" s="18">
-        <v>2088600</v>
+        <v>1587000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -2069,19 +1982,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F47" s="18">
-        <v>83544</v>
+        <v>319520</v>
       </c>
       <c r="G47" s="18">
-        <v>2088600</v>
+        <v>11411439</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2092,19 +2005,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F48" s="18">
-        <v>83544</v>
+        <v>41676</v>
       </c>
       <c r="G48" s="18">
-        <v>2088600</v>
+        <v>1587000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2115,19 +2028,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="F49" s="18">
-        <v>83544</v>
+        <v>319520</v>
       </c>
       <c r="G49" s="18">
-        <v>2088600</v>
+        <v>11411439</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2138,19 +2051,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F50" s="18">
-        <v>83544</v>
+        <v>41676</v>
       </c>
       <c r="G50" s="18">
-        <v>2088600</v>
+        <v>1587000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2161,19 +2074,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F51" s="18">
-        <v>83544</v>
+        <v>319520</v>
       </c>
       <c r="G51" s="18">
-        <v>2088600</v>
+        <v>11411439</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2184,19 +2097,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="F52" s="18">
-        <v>83544</v>
+        <v>41676</v>
       </c>
       <c r="G52" s="18">
-        <v>2088600</v>
+        <v>1587000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2207,13 +2120,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F53" s="18">
         <v>83544</v>
@@ -2230,19 +2143,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="F54" s="18">
-        <v>83544</v>
+        <v>319520</v>
       </c>
       <c r="G54" s="18">
-        <v>2088600</v>
+        <v>11411439</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2253,19 +2166,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F55" s="18">
-        <v>83544</v>
+        <v>41676</v>
       </c>
       <c r="G55" s="18">
-        <v>2088600</v>
+        <v>1587000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2276,13 +2189,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F56" s="18">
         <v>83544</v>
@@ -2299,19 +2212,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F57" s="18">
-        <v>83544</v>
+        <v>319520</v>
       </c>
       <c r="G57" s="18">
-        <v>2088600</v>
+        <v>11411439</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2322,19 +2235,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="F58" s="18">
-        <v>83544</v>
+        <v>41676</v>
       </c>
       <c r="G58" s="18">
-        <v>2088600</v>
+        <v>1587000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2345,13 +2258,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="F59" s="18">
         <v>83544</v>
@@ -2368,19 +2281,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F60" s="18">
-        <v>83544</v>
+        <v>319520</v>
       </c>
       <c r="G60" s="18">
-        <v>2088600</v>
+        <v>11411439</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2391,19 +2304,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="F61" s="18">
-        <v>83544</v>
+        <v>41676</v>
       </c>
       <c r="G61" s="18">
-        <v>2088600</v>
+        <v>1587000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2414,13 +2327,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="F62" s="18">
         <v>83544</v>
@@ -2437,19 +2350,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="F63" s="18">
-        <v>83544</v>
+        <v>319520</v>
       </c>
       <c r="G63" s="18">
-        <v>2088600</v>
+        <v>11411439</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2460,19 +2373,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="F64" s="18">
-        <v>83544</v>
+        <v>41676</v>
       </c>
       <c r="G64" s="18">
-        <v>2088600</v>
+        <v>1587000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2483,13 +2396,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="F65" s="18">
         <v>83544</v>
@@ -2506,19 +2419,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F66" s="18">
-        <v>83544</v>
+        <v>319520</v>
       </c>
       <c r="G66" s="18">
-        <v>2088600</v>
+        <v>11411439</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2529,19 +2442,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="F67" s="18">
-        <v>83544</v>
+        <v>41676</v>
       </c>
       <c r="G67" s="18">
-        <v>2088600</v>
+        <v>1587000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2552,13 +2465,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="F68" s="18">
         <v>83544</v>
@@ -2575,19 +2488,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="F69" s="18">
-        <v>83544</v>
+        <v>319520</v>
       </c>
       <c r="G69" s="18">
-        <v>2088600</v>
+        <v>11411439</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2598,19 +2511,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="F70" s="18">
-        <v>83544</v>
+        <v>41676</v>
       </c>
       <c r="G70" s="18">
-        <v>2088600</v>
+        <v>1587000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2621,13 +2534,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="F71" s="18">
         <v>83544</v>
@@ -2644,19 +2557,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="F72" s="18">
-        <v>83544</v>
+        <v>319520</v>
       </c>
       <c r="G72" s="18">
-        <v>2088600</v>
+        <v>11411439</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2667,19 +2580,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F73" s="18">
-        <v>3935</v>
+        <v>41676</v>
       </c>
       <c r="G73" s="18">
-        <v>2951100</v>
+        <v>1587000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2690,19 +2603,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="F74" s="18">
-        <v>3935</v>
+        <v>83544</v>
       </c>
       <c r="G74" s="18">
-        <v>2951100</v>
+        <v>2088600</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2713,13 +2626,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F75" s="18">
         <v>319520</v>
@@ -2736,19 +2649,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="F76" s="18">
-        <v>319520</v>
+        <v>41676</v>
       </c>
       <c r="G76" s="18">
-        <v>11411439</v>
+        <v>1587000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2759,19 +2672,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="F77" s="18">
-        <v>319520</v>
+        <v>83544</v>
       </c>
       <c r="G77" s="18">
-        <v>11411439</v>
+        <v>2088600</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2782,13 +2695,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F78" s="18">
         <v>319520</v>
@@ -2805,19 +2718,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F79" s="18">
-        <v>319520</v>
+        <v>41676</v>
       </c>
       <c r="G79" s="18">
-        <v>11411439</v>
+        <v>1587000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2828,19 +2741,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="F80" s="18">
-        <v>319520</v>
+        <v>83544</v>
       </c>
       <c r="G80" s="18">
-        <v>11411439</v>
+        <v>2088600</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2851,13 +2764,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F81" s="18">
         <v>319520</v>
@@ -2874,19 +2787,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F82" s="18">
-        <v>319520</v>
+        <v>41676</v>
       </c>
       <c r="G82" s="18">
-        <v>11411439</v>
+        <v>1587000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2897,19 +2810,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F83" s="18">
-        <v>319520</v>
+        <v>83544</v>
       </c>
       <c r="G83" s="18">
-        <v>11411439</v>
+        <v>2088600</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2920,13 +2833,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F84" s="18">
         <v>319520</v>
@@ -2943,19 +2856,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F85" s="18">
-        <v>319520</v>
+        <v>41676</v>
       </c>
       <c r="G85" s="18">
-        <v>11411439</v>
+        <v>1587000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2966,19 +2879,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F86" s="18">
-        <v>319520</v>
+        <v>83544</v>
       </c>
       <c r="G86" s="18">
-        <v>11411439</v>
+        <v>2088600</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2989,13 +2902,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F87" s="18">
         <v>319520</v>
@@ -3012,19 +2925,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F88" s="18">
-        <v>319520</v>
+        <v>41676</v>
       </c>
       <c r="G88" s="18">
-        <v>11411439</v>
+        <v>1587000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -3035,19 +2948,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F89" s="18">
-        <v>319520</v>
+        <v>83544</v>
       </c>
       <c r="G89" s="18">
-        <v>11411439</v>
+        <v>2088600</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -3058,13 +2971,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F90" s="18">
         <v>319520</v>
@@ -3081,19 +2994,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F91" s="18">
-        <v>319520</v>
+        <v>41676</v>
       </c>
       <c r="G91" s="18">
-        <v>11411439</v>
+        <v>1587000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3104,19 +3017,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F92" s="18">
-        <v>319520</v>
+        <v>83544</v>
       </c>
       <c r="G92" s="18">
-        <v>11411439</v>
+        <v>2088600</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3127,13 +3040,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F93" s="18">
         <v>319520</v>
@@ -3150,19 +3063,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F94" s="18">
-        <v>319520</v>
+        <v>41676</v>
       </c>
       <c r="G94" s="18">
-        <v>11411439</v>
+        <v>1587000</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3173,19 +3086,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F95" s="18">
-        <v>319520</v>
+        <v>83544</v>
       </c>
       <c r="G95" s="18">
-        <v>11411439</v>
+        <v>2088600</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3196,13 +3109,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F96" s="18">
         <v>319520</v>
@@ -3219,19 +3132,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F97" s="18">
-        <v>319520</v>
+        <v>41676</v>
       </c>
       <c r="G97" s="18">
-        <v>11411439</v>
+        <v>1587000</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3242,19 +3155,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F98" s="18">
-        <v>319520</v>
+        <v>83544</v>
       </c>
       <c r="G98" s="18">
-        <v>11411439</v>
+        <v>2088600</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3265,13 +3178,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F99" s="18">
         <v>319520</v>
@@ -3288,19 +3201,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E100" s="16" t="s">
         <v>56</v>
       </c>
       <c r="F100" s="18">
-        <v>319520</v>
+        <v>41676</v>
       </c>
       <c r="G100" s="18">
-        <v>11411439</v>
+        <v>1587000</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3311,19 +3224,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E101" s="16" t="s">
         <v>57</v>
       </c>
       <c r="F101" s="18">
-        <v>319520</v>
+        <v>83544</v>
       </c>
       <c r="G101" s="18">
-        <v>11411439</v>
+        <v>2088600</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3334,13 +3247,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F102" s="18">
         <v>319520</v>
@@ -3357,19 +3270,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F103" s="18">
-        <v>319520</v>
+        <v>41676</v>
       </c>
       <c r="G103" s="18">
-        <v>11411439</v>
+        <v>1587000</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3380,19 +3293,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F104" s="18">
-        <v>319520</v>
+        <v>83544</v>
       </c>
       <c r="G104" s="18">
-        <v>11411439</v>
+        <v>2088600</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3403,13 +3316,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F105" s="18">
         <v>319520</v>
@@ -3426,19 +3339,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F106" s="18">
-        <v>319520</v>
+        <v>41676</v>
       </c>
       <c r="G106" s="18">
-        <v>11411439</v>
+        <v>1587000</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3449,19 +3362,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F107" s="18">
-        <v>319520</v>
+        <v>83544</v>
       </c>
       <c r="G107" s="18">
-        <v>11411439</v>
+        <v>2088600</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3472,13 +3385,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F108" s="18">
         <v>319520</v>
@@ -3495,19 +3408,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F109" s="18">
-        <v>319520</v>
+        <v>41676</v>
       </c>
       <c r="G109" s="18">
-        <v>11411439</v>
+        <v>1587000</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3518,19 +3431,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F110" s="18">
-        <v>319520</v>
+        <v>83544</v>
       </c>
       <c r="G110" s="18">
-        <v>11411439</v>
+        <v>2088600</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3541,13 +3454,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F111" s="18">
         <v>319520</v>
@@ -3564,19 +3477,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F112" s="18">
-        <v>319520</v>
+        <v>41676</v>
       </c>
       <c r="G112" s="18">
-        <v>11411439</v>
+        <v>1587000</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3587,19 +3500,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F113" s="18">
-        <v>319520</v>
+        <v>83544</v>
       </c>
       <c r="G113" s="18">
-        <v>11411439</v>
+        <v>2088600</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3610,13 +3523,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F114" s="18">
         <v>319520</v>
@@ -3633,19 +3546,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F115" s="18">
-        <v>319520</v>
+        <v>41676</v>
       </c>
       <c r="G115" s="18">
-        <v>11411439</v>
+        <v>1587000</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3656,19 +3569,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F116" s="18">
-        <v>319520</v>
+        <v>83544</v>
       </c>
       <c r="G116" s="18">
-        <v>11411439</v>
+        <v>2088600</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3679,13 +3592,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F117" s="18">
         <v>319520</v>
@@ -3702,19 +3615,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F118" s="18">
-        <v>319520</v>
+        <v>41676</v>
       </c>
       <c r="G118" s="18">
-        <v>11411439</v>
+        <v>1587000</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3725,19 +3638,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F119" s="18">
-        <v>319520</v>
+        <v>83544</v>
       </c>
       <c r="G119" s="18">
-        <v>11411439</v>
+        <v>2088600</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3748,13 +3661,13 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F120" s="18">
         <v>319520</v>
@@ -3771,19 +3684,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="F121" s="18">
-        <v>319520</v>
+        <v>83544</v>
       </c>
       <c r="G121" s="18">
-        <v>11411439</v>
+        <v>2088600</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3794,13 +3707,13 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F122" s="18">
         <v>319520</v>
@@ -3817,19 +3730,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F123" s="18">
-        <v>319520</v>
+        <v>83544</v>
       </c>
       <c r="G123" s="18">
-        <v>11411439</v>
+        <v>2088600</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3840,13 +3753,13 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="F124" s="18">
         <v>319520</v>
@@ -3863,19 +3776,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="F125" s="18">
-        <v>319520</v>
+        <v>83544</v>
       </c>
       <c r="G125" s="18">
-        <v>11411439</v>
+        <v>2088600</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3886,13 +3799,13 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F126" s="18">
         <v>319520</v>
@@ -3909,19 +3822,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="F127" s="18">
-        <v>319520</v>
+        <v>83544</v>
       </c>
       <c r="G127" s="18">
-        <v>11411439</v>
+        <v>2088600</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3932,13 +3845,13 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="F128" s="18">
         <v>319520</v>
@@ -3955,19 +3868,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="F129" s="18">
-        <v>319520</v>
+        <v>83544</v>
       </c>
       <c r="G129" s="18">
-        <v>11411439</v>
+        <v>2088600</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -3978,13 +3891,13 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="F130" s="18">
         <v>319520</v>
@@ -4001,19 +3914,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="F131" s="18">
-        <v>319520</v>
+        <v>54048</v>
       </c>
       <c r="G131" s="18">
-        <v>11411439</v>
+        <v>1587000</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -4024,19 +3937,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="F132" s="18">
-        <v>319520</v>
+        <v>52000</v>
       </c>
       <c r="G132" s="18">
-        <v>11411439</v>
+        <v>1300000</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -4047,19 +3960,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="F133" s="18">
-        <v>319520</v>
+        <v>54048</v>
       </c>
       <c r="G133" s="18">
-        <v>11411439</v>
+        <v>1351200</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -4070,19 +3983,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="F134" s="18">
-        <v>319520</v>
+        <v>54048</v>
       </c>
       <c r="G134" s="18">
-        <v>11411439</v>
+        <v>1491500</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4093,19 +4006,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="F135" s="18">
-        <v>2116</v>
+        <v>54048</v>
       </c>
       <c r="G135" s="18">
-        <v>1587000</v>
+        <v>1351200</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4116,19 +4029,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="F136" s="18">
-        <v>11388</v>
+        <v>83544</v>
       </c>
       <c r="G136" s="18">
-        <v>1423500</v>
+        <v>2088600</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4139,19 +4052,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="F137" s="18">
-        <v>117420</v>
+        <v>319520</v>
       </c>
       <c r="G137" s="18">
-        <v>2935500</v>
+        <v>11411439</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4162,13 +4075,13 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="F138" s="18">
         <v>117420</v>
@@ -4185,19 +4098,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="F139" s="18">
-        <v>117420</v>
+        <v>83544</v>
       </c>
       <c r="G139" s="18">
-        <v>2935500</v>
+        <v>2088600</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4208,19 +4121,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="F140" s="18">
-        <v>117420</v>
+        <v>319520</v>
       </c>
       <c r="G140" s="18">
-        <v>2935500</v>
+        <v>11411439</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4231,13 +4144,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="F141" s="18">
         <v>117420</v>
@@ -4254,19 +4167,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="F142" s="18">
-        <v>117420</v>
+        <v>83544</v>
       </c>
       <c r="G142" s="18">
-        <v>2935500</v>
+        <v>2088600</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4277,19 +4190,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="F143" s="18">
-        <v>117420</v>
+        <v>319520</v>
       </c>
       <c r="G143" s="18">
-        <v>2935500</v>
+        <v>11411439</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4300,13 +4213,13 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="F144" s="18">
         <v>117420</v>
@@ -4323,19 +4236,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="F145" s="18">
-        <v>117420</v>
+        <v>83544</v>
       </c>
       <c r="G145" s="18">
-        <v>2935500</v>
+        <v>2088600</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4346,19 +4259,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="F146" s="18">
-        <v>117420</v>
+        <v>319520</v>
       </c>
       <c r="G146" s="18">
-        <v>2935500</v>
+        <v>11411439</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4369,13 +4282,13 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="F147" s="18">
         <v>117420</v>
@@ -4392,19 +4305,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="F148" s="18">
-        <v>117420</v>
+        <v>59660</v>
       </c>
       <c r="G148" s="18">
-        <v>2935500</v>
+        <v>1491500</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4415,19 +4328,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="F149" s="18">
-        <v>117420</v>
+        <v>83544</v>
       </c>
       <c r="G149" s="18">
-        <v>2935500</v>
+        <v>2088600</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4438,19 +4351,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F150" s="18">
-        <v>117420</v>
+        <v>319520</v>
       </c>
       <c r="G150" s="18">
-        <v>2935500</v>
+        <v>11411439</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4461,13 +4374,13 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="F151" s="18">
         <v>117420</v>
@@ -4484,19 +4397,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="F152" s="18">
-        <v>117420</v>
+        <v>59660</v>
       </c>
       <c r="G152" s="18">
-        <v>2935500</v>
+        <v>1491500</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4507,19 +4420,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="F153" s="18">
-        <v>117420</v>
+        <v>83544</v>
       </c>
       <c r="G153" s="18">
-        <v>2935500</v>
+        <v>2088600</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4530,19 +4443,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="F154" s="18">
-        <v>117420</v>
+        <v>319520</v>
       </c>
       <c r="G154" s="18">
-        <v>2935500</v>
+        <v>11411439</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4553,16 +4466,16 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F155" s="18">
-        <v>79200</v>
+        <v>117420</v>
       </c>
       <c r="G155" s="18">
         <v>2935500</v>
@@ -4576,16 +4489,16 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="F156" s="18">
-        <v>41676</v>
+        <v>59660</v>
       </c>
       <c r="G156" s="18">
         <v>1491500</v>
@@ -4599,19 +4512,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="F157" s="18">
-        <v>41676</v>
+        <v>83544</v>
       </c>
       <c r="G157" s="18">
-        <v>1491500</v>
+        <v>2088600</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4622,19 +4535,19 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="F158" s="18">
-        <v>41676</v>
+        <v>319520</v>
       </c>
       <c r="G158" s="18">
-        <v>1491500</v>
+        <v>11411439</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -4645,19 +4558,19 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="F159" s="18">
-        <v>41676</v>
+        <v>117420</v>
       </c>
       <c r="G159" s="18">
-        <v>1491500</v>
+        <v>2935500</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4668,16 +4581,16 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="F160" s="18">
-        <v>41676</v>
+        <v>59660</v>
       </c>
       <c r="G160" s="18">
         <v>1491500</v>
@@ -4691,19 +4604,19 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F161" s="18">
-        <v>41676</v>
+        <v>83544</v>
       </c>
       <c r="G161" s="18">
-        <v>1491500</v>
+        <v>2088600</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -4714,19 +4627,19 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="F162" s="18">
-        <v>41676</v>
+        <v>319520</v>
       </c>
       <c r="G162" s="18">
-        <v>1491500</v>
+        <v>11411439</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4737,19 +4650,19 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="F163" s="18">
-        <v>41676</v>
+        <v>117420</v>
       </c>
       <c r="G163" s="18">
-        <v>1491500</v>
+        <v>2935500</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4760,16 +4673,16 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="F164" s="18">
-        <v>41676</v>
+        <v>59660</v>
       </c>
       <c r="G164" s="18">
         <v>1491500</v>
@@ -4783,19 +4696,19 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="F165" s="18">
-        <v>41676</v>
+        <v>83544</v>
       </c>
       <c r="G165" s="18">
-        <v>1491500</v>
+        <v>2088600</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -4806,19 +4719,19 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="F166" s="18">
-        <v>41676</v>
+        <v>319520</v>
       </c>
       <c r="G166" s="18">
-        <v>1491500</v>
+        <v>11411439</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -4829,19 +4742,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="F167" s="18">
-        <v>41676</v>
+        <v>117420</v>
       </c>
       <c r="G167" s="18">
-        <v>1491500</v>
+        <v>2935500</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -4852,16 +4765,16 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="F168" s="18">
-        <v>41676</v>
+        <v>59660</v>
       </c>
       <c r="G168" s="18">
         <v>1491500</v>
@@ -4875,19 +4788,19 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="F169" s="18">
-        <v>41676</v>
+        <v>83544</v>
       </c>
       <c r="G169" s="18">
-        <v>1491500</v>
+        <v>2088600</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
@@ -4898,19 +4811,19 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="F170" s="18">
-        <v>41676</v>
+        <v>319520</v>
       </c>
       <c r="G170" s="18">
-        <v>1491500</v>
+        <v>11411439</v>
       </c>
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
@@ -4921,19 +4834,19 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F171" s="18">
-        <v>41676</v>
+        <v>117420</v>
       </c>
       <c r="G171" s="18">
-        <v>1491500</v>
+        <v>2935500</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -4944,16 +4857,16 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="F172" s="18">
-        <v>41676</v>
+        <v>59660</v>
       </c>
       <c r="G172" s="18">
         <v>1491500</v>
@@ -4967,19 +4880,19 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="F173" s="18">
-        <v>41676</v>
+        <v>83544</v>
       </c>
       <c r="G173" s="18">
-        <v>1491500</v>
+        <v>2088600</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -4990,19 +4903,19 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="F174" s="18">
-        <v>41676</v>
+        <v>319520</v>
       </c>
       <c r="G174" s="18">
-        <v>1491500</v>
+        <v>11411439</v>
       </c>
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
@@ -5013,19 +4926,19 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="F175" s="18">
-        <v>41676</v>
+        <v>117420</v>
       </c>
       <c r="G175" s="18">
-        <v>1491500</v>
+        <v>2935500</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -5036,16 +4949,16 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="F176" s="18">
-        <v>41676</v>
+        <v>59660</v>
       </c>
       <c r="G176" s="18">
         <v>1491500</v>
@@ -5059,19 +4972,19 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="F177" s="18">
-        <v>41676</v>
+        <v>83544</v>
       </c>
       <c r="G177" s="18">
-        <v>1491500</v>
+        <v>2088600</v>
       </c>
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
@@ -5082,19 +4995,19 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F178" s="18">
-        <v>41676</v>
+        <v>319520</v>
       </c>
       <c r="G178" s="18">
-        <v>1491500</v>
+        <v>11411439</v>
       </c>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
@@ -5105,19 +5018,19 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F179" s="18">
-        <v>41676</v>
+        <v>117420</v>
       </c>
       <c r="G179" s="18">
-        <v>1491500</v>
+        <v>2935500</v>
       </c>
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
@@ -5128,16 +5041,16 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F180" s="18">
-        <v>41676</v>
+        <v>59660</v>
       </c>
       <c r="G180" s="18">
         <v>1491500</v>
@@ -5151,19 +5064,19 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F181" s="18">
-        <v>41676</v>
+        <v>83544</v>
       </c>
       <c r="G181" s="18">
-        <v>1491500</v>
+        <v>2088600</v>
       </c>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
@@ -5174,19 +5087,19 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="F182" s="18">
-        <v>41676</v>
+        <v>319520</v>
       </c>
       <c r="G182" s="18">
-        <v>1491500</v>
+        <v>11411439</v>
       </c>
       <c r="H182" s="19"/>
       <c r="I182" s="19"/>
@@ -5197,19 +5110,19 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F183" s="18">
-        <v>41676</v>
+        <v>117420</v>
       </c>
       <c r="G183" s="18">
-        <v>1491500</v>
+        <v>2935500</v>
       </c>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
@@ -5220,16 +5133,16 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F184" s="18">
-        <v>41676</v>
+        <v>59660</v>
       </c>
       <c r="G184" s="18">
         <v>1491500</v>
@@ -5243,19 +5156,19 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F185" s="18">
-        <v>41676</v>
+        <v>83544</v>
       </c>
       <c r="G185" s="18">
-        <v>1491500</v>
+        <v>2088600</v>
       </c>
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
@@ -5266,19 +5179,19 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F186" s="18">
-        <v>41676</v>
+        <v>319520</v>
       </c>
       <c r="G186" s="18">
-        <v>1491500</v>
+        <v>11411439</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
@@ -5289,19 +5202,19 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F187" s="18">
-        <v>41676</v>
+        <v>117420</v>
       </c>
       <c r="G187" s="18">
-        <v>1491500</v>
+        <v>2935500</v>
       </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
@@ -5312,16 +5225,16 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F188" s="18">
-        <v>41676</v>
+        <v>59660</v>
       </c>
       <c r="G188" s="18">
         <v>1491500</v>
@@ -5335,19 +5248,19 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F189" s="18">
-        <v>41676</v>
+        <v>83544</v>
       </c>
       <c r="G189" s="18">
-        <v>1491500</v>
+        <v>2088600</v>
       </c>
       <c r="H189" s="19"/>
       <c r="I189" s="19"/>
@@ -5358,19 +5271,19 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F190" s="18">
-        <v>41676</v>
+        <v>319520</v>
       </c>
       <c r="G190" s="18">
-        <v>1491500</v>
+        <v>11411439</v>
       </c>
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
@@ -5381,19 +5294,19 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F191" s="18">
-        <v>41676</v>
+        <v>117420</v>
       </c>
       <c r="G191" s="18">
-        <v>1491500</v>
+        <v>2935500</v>
       </c>
       <c r="H191" s="19"/>
       <c r="I191" s="19"/>
@@ -5404,16 +5317,16 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F192" s="18">
-        <v>41676</v>
+        <v>59660</v>
       </c>
       <c r="G192" s="18">
         <v>1491500</v>
@@ -5427,19 +5340,19 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F193" s="18">
-        <v>41676</v>
+        <v>83544</v>
       </c>
       <c r="G193" s="18">
-        <v>1491500</v>
+        <v>2088600</v>
       </c>
       <c r="H193" s="19"/>
       <c r="I193" s="19"/>
@@ -5450,19 +5363,19 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F194" s="18">
-        <v>41676</v>
+        <v>319520</v>
       </c>
       <c r="G194" s="18">
-        <v>1491500</v>
+        <v>11411439</v>
       </c>
       <c r="H194" s="19"/>
       <c r="I194" s="19"/>
@@ -5473,19 +5386,19 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F195" s="18">
-        <v>41676</v>
+        <v>117420</v>
       </c>
       <c r="G195" s="18">
-        <v>1491500</v>
+        <v>2935500</v>
       </c>
       <c r="H195" s="19"/>
       <c r="I195" s="19"/>
@@ -5496,16 +5409,16 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F196" s="18">
-        <v>41676</v>
+        <v>59660</v>
       </c>
       <c r="G196" s="18">
         <v>1491500</v>
@@ -5519,19 +5432,19 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F197" s="18">
-        <v>41676</v>
+        <v>83544</v>
       </c>
       <c r="G197" s="18">
-        <v>1491500</v>
+        <v>2088600</v>
       </c>
       <c r="H197" s="19"/>
       <c r="I197" s="19"/>
@@ -5542,19 +5455,19 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F198" s="18">
-        <v>41676</v>
+        <v>319520</v>
       </c>
       <c r="G198" s="18">
-        <v>1491500</v>
+        <v>11411439</v>
       </c>
       <c r="H198" s="19"/>
       <c r="I198" s="19"/>
@@ -5565,19 +5478,19 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F199" s="18">
-        <v>17556</v>
+        <v>117420</v>
       </c>
       <c r="G199" s="18">
-        <v>877803</v>
+        <v>2935500</v>
       </c>
       <c r="H199" s="19"/>
       <c r="I199" s="19"/>
@@ -5588,19 +5501,19 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="F200" s="18">
-        <v>40000</v>
+        <v>59660</v>
       </c>
       <c r="G200" s="18">
-        <v>1000000</v>
+        <v>1491500</v>
       </c>
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
@@ -5611,19 +5524,19 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="F201" s="18">
-        <v>40000</v>
+        <v>83544</v>
       </c>
       <c r="G201" s="18">
-        <v>1000000</v>
+        <v>2088600</v>
       </c>
       <c r="H201" s="19"/>
       <c r="I201" s="19"/>
@@ -5634,19 +5547,19 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="F202" s="18">
-        <v>40000</v>
+        <v>319520</v>
       </c>
       <c r="G202" s="18">
-        <v>1000000</v>
+        <v>11411439</v>
       </c>
       <c r="H202" s="19"/>
       <c r="I202" s="19"/>
@@ -5657,19 +5570,19 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="F203" s="18">
-        <v>40000</v>
+        <v>117420</v>
       </c>
       <c r="G203" s="18">
-        <v>1000000</v>
+        <v>2935500</v>
       </c>
       <c r="H203" s="19"/>
       <c r="I203" s="19"/>
@@ -5680,19 +5593,19 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="F204" s="18">
-        <v>40000</v>
+        <v>59660</v>
       </c>
       <c r="G204" s="18">
-        <v>1000000</v>
+        <v>1491500</v>
       </c>
       <c r="H204" s="19"/>
       <c r="I204" s="19"/>
@@ -5703,19 +5616,19 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="F205" s="18">
-        <v>40000</v>
+        <v>83544</v>
       </c>
       <c r="G205" s="18">
-        <v>1000000</v>
+        <v>2088600</v>
       </c>
       <c r="H205" s="19"/>
       <c r="I205" s="19"/>
@@ -5726,19 +5639,19 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="F206" s="18">
-        <v>59660</v>
+        <v>319520</v>
       </c>
       <c r="G206" s="18">
-        <v>1491500</v>
+        <v>11411439</v>
       </c>
       <c r="H206" s="19"/>
       <c r="I206" s="19"/>
@@ -5749,489 +5662,75 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="F207" s="18">
-        <v>59660</v>
+        <v>117420</v>
       </c>
       <c r="G207" s="18">
-        <v>1491500</v>
+        <v>2935500</v>
       </c>
       <c r="H207" s="19"/>
       <c r="I207" s="19"/>
       <c r="J207" s="20"/>
     </row>
     <row r="208" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B208" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C208" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D208" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="E208" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F208" s="18">
+      <c r="B208" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C208" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D208" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E208" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F208" s="24">
         <v>59660</v>
       </c>
-      <c r="G208" s="18">
+      <c r="G208" s="24">
         <v>1491500</v>
       </c>
-      <c r="H208" s="19"/>
-      <c r="I208" s="19"/>
-      <c r="J208" s="20"/>
-    </row>
-    <row r="209" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B209" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C209" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D209" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="E209" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F209" s="18">
-        <v>59660</v>
-      </c>
-      <c r="G209" s="18">
-        <v>1491500</v>
-      </c>
-      <c r="H209" s="19"/>
-      <c r="I209" s="19"/>
-      <c r="J209" s="20"/>
-    </row>
-    <row r="210" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B210" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C210" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D210" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="E210" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F210" s="18">
-        <v>59660</v>
-      </c>
-      <c r="G210" s="18">
-        <v>1491500</v>
-      </c>
-      <c r="H210" s="19"/>
-      <c r="I210" s="19"/>
-      <c r="J210" s="20"/>
-    </row>
-    <row r="211" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B211" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C211" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D211" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="E211" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F211" s="18">
-        <v>59660</v>
-      </c>
-      <c r="G211" s="18">
-        <v>1491500</v>
-      </c>
-      <c r="H211" s="19"/>
-      <c r="I211" s="19"/>
-      <c r="J211" s="20"/>
-    </row>
-    <row r="212" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B212" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C212" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D212" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="E212" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F212" s="18">
-        <v>59660</v>
-      </c>
-      <c r="G212" s="18">
-        <v>1491500</v>
-      </c>
-      <c r="H212" s="19"/>
-      <c r="I212" s="19"/>
-      <c r="J212" s="20"/>
+      <c r="H208" s="25"/>
+      <c r="I208" s="25"/>
+      <c r="J208" s="26"/>
     </row>
     <row r="213" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B213" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C213" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D213" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="E213" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F213" s="18">
-        <v>59660</v>
-      </c>
-      <c r="G213" s="18">
-        <v>1491500</v>
-      </c>
-      <c r="H213" s="19"/>
-      <c r="I213" s="19"/>
-      <c r="J213" s="20"/>
+      <c r="B213" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C213" s="32"/>
+      <c r="H213" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I213" s="1"/>
+      <c r="J213" s="1"/>
     </row>
     <row r="214" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B214" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C214" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D214" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="E214" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F214" s="18">
-        <v>59660</v>
-      </c>
-      <c r="G214" s="18">
-        <v>1491500</v>
-      </c>
-      <c r="H214" s="19"/>
-      <c r="I214" s="19"/>
-      <c r="J214" s="20"/>
-    </row>
-    <row r="215" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B215" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C215" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D215" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="E215" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F215" s="18">
-        <v>59660</v>
-      </c>
-      <c r="G215" s="18">
-        <v>1491500</v>
-      </c>
-      <c r="H215" s="19"/>
-      <c r="I215" s="19"/>
-      <c r="J215" s="20"/>
-    </row>
-    <row r="216" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B216" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C216" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D216" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="E216" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F216" s="18">
-        <v>59660</v>
-      </c>
-      <c r="G216" s="18">
-        <v>1491500</v>
-      </c>
-      <c r="H216" s="19"/>
-      <c r="I216" s="19"/>
-      <c r="J216" s="20"/>
-    </row>
-    <row r="217" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B217" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C217" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D217" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="E217" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F217" s="18">
-        <v>59660</v>
-      </c>
-      <c r="G217" s="18">
-        <v>1491500</v>
-      </c>
-      <c r="H217" s="19"/>
-      <c r="I217" s="19"/>
-      <c r="J217" s="20"/>
-    </row>
-    <row r="218" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B218" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C218" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D218" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="E218" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F218" s="18">
-        <v>59660</v>
-      </c>
-      <c r="G218" s="18">
-        <v>1491500</v>
-      </c>
-      <c r="H218" s="19"/>
-      <c r="I218" s="19"/>
-      <c r="J218" s="20"/>
-    </row>
-    <row r="219" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B219" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C219" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D219" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="E219" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F219" s="18">
-        <v>59660</v>
-      </c>
-      <c r="G219" s="18">
-        <v>1491500</v>
-      </c>
-      <c r="H219" s="19"/>
-      <c r="I219" s="19"/>
-      <c r="J219" s="20"/>
-    </row>
-    <row r="220" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B220" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C220" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D220" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="E220" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F220" s="18">
-        <v>59660</v>
-      </c>
-      <c r="G220" s="18">
-        <v>1491500</v>
-      </c>
-      <c r="H220" s="19"/>
-      <c r="I220" s="19"/>
-      <c r="J220" s="20"/>
-    </row>
-    <row r="221" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B221" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C221" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D221" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="E221" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F221" s="18">
-        <v>11388</v>
-      </c>
-      <c r="G221" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H221" s="19"/>
-      <c r="I221" s="19"/>
-      <c r="J221" s="20"/>
-    </row>
-    <row r="222" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B222" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C222" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="D222" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="E222" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F222" s="18">
-        <v>11388</v>
-      </c>
-      <c r="G222" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H222" s="19"/>
-      <c r="I222" s="19"/>
-      <c r="J222" s="20"/>
-    </row>
-    <row r="223" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B223" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C223" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D223" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E223" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F223" s="18">
-        <v>11388</v>
-      </c>
-      <c r="G223" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H223" s="19"/>
-      <c r="I223" s="19"/>
-      <c r="J223" s="20"/>
-    </row>
-    <row r="224" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B224" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C224" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D224" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="E224" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F224" s="18">
-        <v>11388</v>
-      </c>
-      <c r="G224" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H224" s="19"/>
-      <c r="I224" s="19"/>
-      <c r="J224" s="20"/>
-    </row>
-    <row r="225" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B225" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C225" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="D225" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E225" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F225" s="18">
-        <v>11388</v>
-      </c>
-      <c r="G225" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H225" s="19"/>
-      <c r="I225" s="19"/>
-      <c r="J225" s="20"/>
-    </row>
-    <row r="226" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B226" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C226" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="D226" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="E226" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F226" s="24">
-        <v>11388</v>
-      </c>
-      <c r="G226" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H226" s="25"/>
-      <c r="I226" s="25"/>
-      <c r="J226" s="26"/>
-    </row>
-    <row r="231" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B231" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="C231" s="32"/>
-      <c r="H231" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I231" s="1"/>
-      <c r="J231" s="1"/>
-    </row>
-    <row r="232" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B232" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="C232" s="32"/>
-      <c r="H232" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I232" s="1"/>
-      <c r="J232" s="1"/>
+      <c r="B214" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C214" s="32"/>
+      <c r="H214" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I214" s="1"/>
+      <c r="J214" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B232:C232"/>
-    <mergeCell ref="B231:C231"/>
-    <mergeCell ref="H232:J232"/>
-    <mergeCell ref="H231:J231"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="H214:J214"/>
+    <mergeCell ref="H213:J213"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
